--- a/Bug Report.xlsx
+++ b/Bug Report.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Test Case Run</t>
   </si>
@@ -139,13 +139,9 @@
   </si>
   <si>
     <t>Project Name: Daraz Seller Center
-Sprint: 1
 No. of Features: 1
 No. of test Cases: 88
 Total Bugs: 2</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
   </si>
 </sst>
 </file>
@@ -478,11 +474,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="317632656"/>
-        <c:axId val="393284144"/>
+        <c:axId val="391887296"/>
+        <c:axId val="420827264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317632656"/>
+        <c:axId val="391887296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,7 +524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393284144"/>
+        <c:crossAx val="420827264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -536,7 +532,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393284144"/>
+        <c:axId val="420827264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,7 +601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317632656"/>
+        <c:crossAx val="391887296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -761,11 +757,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="387298640"/>
-        <c:axId val="392508272"/>
+        <c:axId val="392654208"/>
+        <c:axId val="425087296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="387298640"/>
+        <c:axId val="392654208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +807,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392508272"/>
+        <c:crossAx val="425087296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -819,7 +815,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="392508272"/>
+        <c:axId val="425087296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387298640"/>
+        <c:crossAx val="392654208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1185,12 +1181,12 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:I38"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="94" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="80" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
@@ -1212,9 +1208,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="17"/>
-      <c r="C3" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="G3" s="26" t="s">
         <v>28</v>
       </c>
